--- a/Code/Results/Cases/Case_8_29/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_8_29/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.06444602622463</v>
+        <v>1.999291017859605</v>
       </c>
       <c r="C2">
-        <v>0.4676113861322904</v>
+        <v>0.4994970552467635</v>
       </c>
       <c r="D2">
-        <v>0.0514082169710548</v>
+        <v>0.05283064960354977</v>
       </c>
       <c r="E2">
-        <v>0.06347506139695902</v>
+        <v>0.06492076251490064</v>
       </c>
       <c r="F2">
-        <v>0.5950207041238116</v>
+        <v>0.5512848271122408</v>
       </c>
       <c r="G2">
-        <v>0.0008002429459804186</v>
+        <v>0.0004307904589679751</v>
       </c>
       <c r="H2">
-        <v>0.0006401164103226886</v>
+        <v>0.0003258717382365051</v>
       </c>
       <c r="I2">
-        <v>0.0004707024589016839</v>
+        <v>0.0005674278107070663</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3595344033975962</v>
+        <v>0.3193484745536281</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1672261815852885</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.08182540382533432</v>
       </c>
       <c r="N2">
-        <v>0.1824525017744989</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.3710939150452148</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.859243713714676</v>
+        <v>0.191538423612144</v>
       </c>
       <c r="Q2">
-        <v>1.775328674774357</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.3643913488804316</v>
+      </c>
+      <c r="R2">
+        <v>0.8548578898103614</v>
+      </c>
+      <c r="S2">
+        <v>1.61656258878304</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.798500747483615</v>
+        <v>1.747216179123996</v>
       </c>
       <c r="C3">
-        <v>0.4216750479343432</v>
+        <v>0.4483328618961195</v>
       </c>
       <c r="D3">
-        <v>0.04650481768235437</v>
+        <v>0.04701034934377191</v>
       </c>
       <c r="E3">
-        <v>0.06141150967633147</v>
+        <v>0.06365042669875676</v>
       </c>
       <c r="F3">
-        <v>0.5520452212323619</v>
+        <v>0.5113249117736558</v>
       </c>
       <c r="G3">
-        <v>0.0008033521319902757</v>
+        <v>0.001225200075208065</v>
       </c>
       <c r="H3">
-        <v>0.001397427188339129</v>
+        <v>0.0008183047873218108</v>
       </c>
       <c r="I3">
-        <v>0.0007371348904108288</v>
+        <v>0.0005283608104464932</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3550393539127619</v>
+        <v>0.3164667997655535</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.170835357726066</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.07733791204968199</v>
       </c>
       <c r="N3">
-        <v>0.1643348996993694</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.3245121154235875</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8744606527196837</v>
+        <v>0.1731373723617367</v>
       </c>
       <c r="Q3">
-        <v>1.677074175052184</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.3190577259677525</v>
+      </c>
+      <c r="R3">
+        <v>0.861609984194132</v>
+      </c>
+      <c r="S3">
+        <v>1.526144610137038</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.6346127791291</v>
+        <v>1.591503170857862</v>
       </c>
       <c r="C4">
-        <v>0.3935549540361336</v>
+        <v>0.417105838271965</v>
       </c>
       <c r="D4">
-        <v>0.04349320538058521</v>
+        <v>0.04344703714642151</v>
       </c>
       <c r="E4">
-        <v>0.0601172745811418</v>
+        <v>0.0628490631305112</v>
       </c>
       <c r="F4">
-        <v>0.5261641384431215</v>
+        <v>0.4870302487313793</v>
       </c>
       <c r="G4">
-        <v>0.0008053322505877291</v>
+        <v>0.001942090259185528</v>
       </c>
       <c r="H4">
-        <v>0.002031393673541104</v>
+        <v>0.001248072374674503</v>
       </c>
       <c r="I4">
-        <v>0.001100082947354863</v>
+        <v>0.0006487247249462591</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3525238055039956</v>
+        <v>0.3147936608731499</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1730857980832283</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.07512712995885984</v>
       </c>
       <c r="N4">
-        <v>0.1532269942645925</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.2958520785010279</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8844709977663996</v>
+        <v>0.1618720657352242</v>
       </c>
       <c r="Q4">
-        <v>1.61823465575182</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.2911220508522732</v>
+      </c>
+      <c r="R4">
+        <v>0.8664373194043193</v>
+      </c>
+      <c r="S4">
+        <v>1.471216121483479</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.566686341139928</v>
+        <v>1.526841631125336</v>
       </c>
       <c r="C5">
-        <v>0.3825586203762015</v>
+        <v>0.404897535791207</v>
       </c>
       <c r="D5">
-        <v>0.04230711651521801</v>
+        <v>0.04204063457189022</v>
       </c>
       <c r="E5">
-        <v>0.05956758542735741</v>
+        <v>0.06250394859318953</v>
       </c>
       <c r="F5">
-        <v>0.5152838869950003</v>
+        <v>0.4767432153167306</v>
       </c>
       <c r="G5">
-        <v>0.0008061621669733717</v>
+        <v>0.002291359457472997</v>
       </c>
       <c r="H5">
-        <v>0.002332243017952096</v>
+        <v>0.001455220186646566</v>
       </c>
       <c r="I5">
-        <v>0.001366155399130875</v>
+        <v>0.0008135863025664491</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3512050762834882</v>
+        <v>0.3138036335713537</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1738470897459443</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.0742765273287489</v>
       </c>
       <c r="N5">
-        <v>0.1487605818730771</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.2840608710636587</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8889368930972807</v>
+        <v>0.157347023325201</v>
       </c>
       <c r="Q5">
-        <v>1.593080850384439</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.2796168641669468</v>
+      </c>
+      <c r="R5">
+        <v>0.8688287734157498</v>
+      </c>
+      <c r="S5">
+        <v>1.447483729759313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.554190622059878</v>
+        <v>1.514902445034636</v>
       </c>
       <c r="C6">
-        <v>0.3812815714762792</v>
+        <v>0.4034544755100171</v>
       </c>
       <c r="D6">
-        <v>0.04216133053875382</v>
+        <v>0.04186056887716205</v>
       </c>
       <c r="E6">
-        <v>0.05945765483293908</v>
+        <v>0.06243058511139599</v>
       </c>
       <c r="F6">
-        <v>0.5129304044828018</v>
+        <v>0.4744978272987481</v>
       </c>
       <c r="G6">
-        <v>0.0008063070680833985</v>
+        <v>0.0023553843799375</v>
       </c>
       <c r="H6">
-        <v>0.00238701468609881</v>
+        <v>0.001493187712431898</v>
       </c>
       <c r="I6">
-        <v>0.001506570103236626</v>
+        <v>0.0009511161505315613</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3505588827308017</v>
+        <v>0.313236556925883</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1737739079111655</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.07403815691593962</v>
       </c>
       <c r="N6">
-        <v>0.1480893845796913</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.2819844522524804</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8899634581844182</v>
+        <v>0.1566676861059264</v>
       </c>
       <c r="Q6">
-        <v>1.587055023782938</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.2775883373092185</v>
+      </c>
+      <c r="R6">
+        <v>0.8695525582833312</v>
+      </c>
+      <c r="S6">
+        <v>1.44173790568334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.630388740299736</v>
+        <v>1.583611705575748</v>
       </c>
       <c r="C7">
-        <v>0.3949083738694128</v>
+        <v>0.4166127633407655</v>
       </c>
       <c r="D7">
-        <v>0.04361762487368281</v>
+        <v>0.04388234246183487</v>
       </c>
       <c r="E7">
-        <v>0.06006062021211056</v>
+        <v>0.06280644831365878</v>
       </c>
       <c r="F7">
-        <v>0.5245029017711289</v>
+        <v>0.4823841353957832</v>
       </c>
       <c r="G7">
-        <v>0.0008053594638878964</v>
+        <v>0.002179520429924198</v>
       </c>
       <c r="H7">
-        <v>0.002041229572553926</v>
+        <v>0.001261224529826466</v>
       </c>
       <c r="I7">
-        <v>0.001342790194586385</v>
+        <v>0.0009309843225837611</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3513298650107473</v>
+        <v>0.3123821356558345</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1719363345562819</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.0744614787675939</v>
       </c>
       <c r="N7">
-        <v>0.1533595117693807</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.2953711374650467</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.8852970863347664</v>
+        <v>0.1618992824676866</v>
       </c>
       <c r="Q7">
-        <v>1.612784150410448</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.2900793901192884</v>
+      </c>
+      <c r="R7">
+        <v>0.8684354372020451</v>
+      </c>
+      <c r="S7">
+        <v>1.455812769218511</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.968443030446849</v>
+        <v>1.895595329010206</v>
       </c>
       <c r="C8">
-        <v>0.4537628922218175</v>
+        <v>0.4774697811818669</v>
       </c>
       <c r="D8">
-        <v>0.04990588324044154</v>
+        <v>0.05206799885824864</v>
       </c>
       <c r="E8">
-        <v>0.06270557329615589</v>
+        <v>0.06444993931829823</v>
       </c>
       <c r="F8">
-        <v>0.5780841307139255</v>
+        <v>0.5254579731186269</v>
       </c>
       <c r="G8">
-        <v>0.0008013204632393198</v>
+        <v>0.002118646930278523</v>
       </c>
       <c r="H8">
-        <v>0.000869816764893061</v>
+        <v>0.0004836268520153064</v>
       </c>
       <c r="I8">
-        <v>0.0008048821911970094</v>
+        <v>0.0008565198095729087</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3563805546217615</v>
+        <v>0.3126608792726771</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.165940541451338</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.07839631773693689</v>
       </c>
       <c r="N8">
-        <v>0.1764596827962848</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.3546131287553962</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8654296625606364</v>
+        <v>0.1850922756540925</v>
       </c>
       <c r="Q8">
-        <v>1.734357932610038</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.3464477622152273</v>
+      </c>
+      <c r="R8">
+        <v>0.8622134648836877</v>
+      </c>
+      <c r="S8">
+        <v>1.545259915646255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.632898264238975</v>
+        <v>2.519541848810832</v>
       </c>
       <c r="C9">
-        <v>0.5673832247896655</v>
+        <v>0.6025328185184549</v>
       </c>
       <c r="D9">
-        <v>0.06199188994034444</v>
+        <v>0.06682776679900826</v>
       </c>
       <c r="E9">
-        <v>0.067785747093978</v>
+        <v>0.06756501396941994</v>
       </c>
       <c r="F9">
-        <v>0.6902750013106598</v>
+        <v>0.6256732046257909</v>
       </c>
       <c r="G9">
-        <v>0.000793927097406663</v>
+        <v>0.001649698736184035</v>
       </c>
       <c r="H9">
-        <v>5.274428325208191E-07</v>
+        <v>9.314165229090676E-06</v>
       </c>
       <c r="I9">
-        <v>0.001085513993810849</v>
+        <v>0.001495617353505452</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3704443553301502</v>
+        <v>0.320660384444821</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1575890811215359</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.09234834382941415</v>
       </c>
       <c r="N9">
-        <v>0.2216031006367203</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.4709739503615324</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8304891315137581</v>
+        <v>0.2309203117066687</v>
       </c>
       <c r="Q9">
-        <v>1.994784950963179</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.4588619582499547</v>
+      </c>
+      <c r="R9">
+        <v>0.8499086127580213</v>
+      </c>
+      <c r="S9">
+        <v>1.771334076139993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.105815350877322</v>
+        <v>2.939579203783467</v>
       </c>
       <c r="C10">
-        <v>0.657416955562951</v>
+        <v>0.6892106402718809</v>
       </c>
       <c r="D10">
-        <v>0.07171324283982727</v>
+        <v>0.08055773817266498</v>
       </c>
       <c r="E10">
-        <v>0.07074356671564885</v>
+        <v>0.06926447544363379</v>
       </c>
       <c r="F10">
-        <v>0.7677191667123822</v>
+        <v>0.6762059592857526</v>
       </c>
       <c r="G10">
-        <v>0.0007888998973640814</v>
+        <v>0.00960022812428285</v>
       </c>
       <c r="H10">
-        <v>0.000510284904025049</v>
+        <v>0.0005392310920790955</v>
       </c>
       <c r="I10">
-        <v>0.002569441181281995</v>
+        <v>0.002881985673994336</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.376565112871095</v>
+        <v>0.3154597146538798</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1474987044818974</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1005935535865881</v>
       </c>
       <c r="N10">
-        <v>0.2433841414587761</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.5473883145567555</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.8137325019420416</v>
+        <v>0.2523397904086693</v>
       </c>
       <c r="Q10">
-        <v>2.167926211009046</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.5289451570162953</v>
+      </c>
+      <c r="R10">
+        <v>0.858813928493781</v>
+      </c>
+      <c r="S10">
+        <v>1.859799217390076</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.215827878822381</v>
+        <v>3.000939809559782</v>
       </c>
       <c r="C11">
-        <v>0.7455896771230357</v>
+        <v>0.7507124771037468</v>
       </c>
       <c r="D11">
-        <v>0.08320700940527104</v>
+        <v>0.09784975276499353</v>
       </c>
       <c r="E11">
-        <v>0.0718055871584129</v>
+        <v>0.07015424078094146</v>
       </c>
       <c r="F11">
-        <v>0.7367289492916314</v>
+        <v>0.6132870781988728</v>
       </c>
       <c r="G11">
-        <v>0.0007873033878066263</v>
+        <v>0.04338929954695558</v>
       </c>
       <c r="H11">
-        <v>0.01905943031089663</v>
+        <v>0.01903235764329736</v>
       </c>
       <c r="I11">
-        <v>0.003573976072668295</v>
+        <v>0.003809301055710534</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.3354429031662569</v>
+        <v>0.2679035037666075</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1277317449776927</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.08579160106906514</v>
       </c>
       <c r="N11">
-        <v>0.1637751010390645</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.5066950786524131</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.8566436577392338</v>
+        <v>0.1693785251741602</v>
       </c>
       <c r="Q11">
-        <v>2.026117990975536</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.4822835300310544</v>
+      </c>
+      <c r="R11">
+        <v>0.9377533002696907</v>
+      </c>
+      <c r="S11">
+        <v>1.620809511871954</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.212512378260953</v>
+        <v>2.982167077041311</v>
       </c>
       <c r="C12">
-        <v>0.8014195142965548</v>
+        <v>0.7903134827296299</v>
       </c>
       <c r="D12">
-        <v>0.09114717513300974</v>
+        <v>0.1088025392856906</v>
       </c>
       <c r="E12">
-        <v>0.07962774074616163</v>
+        <v>0.07729340407128404</v>
       </c>
       <c r="F12">
-        <v>0.6964950607970337</v>
+        <v>0.5636961892657837</v>
       </c>
       <c r="G12">
-        <v>0.0007869195592377305</v>
+        <v>0.06768068490536905</v>
       </c>
       <c r="H12">
-        <v>0.05766048365259024</v>
+        <v>0.05762279272716597</v>
       </c>
       <c r="I12">
-        <v>0.003665255755645802</v>
+        <v>0.003839268137666885</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.3029382918375809</v>
+        <v>0.237507488632712</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1165688515516763</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.07455268479595745</v>
       </c>
       <c r="N12">
-        <v>0.1075698817084429</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.4583663464048584</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0.9024338612843934</v>
+        <v>0.1111755762555475</v>
       </c>
       <c r="Q12">
-        <v>1.879603694124853</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.4327233538216291</v>
+      </c>
+      <c r="R12">
+        <v>1.004703515859305</v>
+      </c>
+      <c r="S12">
+        <v>1.450531062746364</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.116514977177019</v>
+        <v>2.905467136571986</v>
       </c>
       <c r="C13">
-        <v>0.837369128284621</v>
+        <v>0.8240225182175891</v>
       </c>
       <c r="D13">
-        <v>0.09694890489867447</v>
+        <v>0.114133581350103</v>
       </c>
       <c r="E13">
-        <v>0.09275671945791508</v>
+        <v>0.09023389144261884</v>
       </c>
       <c r="F13">
-        <v>0.644322204144359</v>
+        <v>0.5244491088500851</v>
       </c>
       <c r="G13">
-        <v>0.0007874679696069919</v>
+        <v>0.06168465212321905</v>
       </c>
       <c r="H13">
-        <v>0.1132849969337002</v>
+        <v>0.1132663735912445</v>
       </c>
       <c r="I13">
-        <v>0.003368821665254096</v>
+        <v>0.00359579545234201</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.2732803744043082</v>
+        <v>0.2174601649902357</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1101908140219727</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.06561623665965755</v>
       </c>
       <c r="N13">
-        <v>0.06650853334829065</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.4012056032319222</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0.9531363951317502</v>
+        <v>0.06895698439496911</v>
       </c>
       <c r="Q13">
-        <v>1.712708222200177</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.3787743746321794</v>
+      </c>
+      <c r="R13">
+        <v>1.057187289081838</v>
+      </c>
+      <c r="S13">
+        <v>1.329748910596408</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.006712201081029</v>
+        <v>2.824057212364551</v>
       </c>
       <c r="C14">
-        <v>0.854135790015448</v>
+        <v>0.845884922700975</v>
       </c>
       <c r="D14">
-        <v>0.1001093131284634</v>
+        <v>0.1152847869573606</v>
       </c>
       <c r="E14">
-        <v>0.1051885073837227</v>
+        <v>0.1031161217151926</v>
       </c>
       <c r="F14">
-        <v>0.6023289864885726</v>
+        <v>0.5003583392627817</v>
       </c>
       <c r="G14">
-        <v>0.0007882752885897381</v>
+        <v>0.04491432838199927</v>
       </c>
       <c r="H14">
-        <v>0.1625345309578279</v>
+        <v>0.1625328326636435</v>
       </c>
       <c r="I14">
-        <v>0.003083083765215378</v>
+        <v>0.003402235320834279</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.2539244364869049</v>
+        <v>0.2072199480800485</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.107389287027674</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.06024342577284791</v>
       </c>
       <c r="N14">
-        <v>0.04693323792308313</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.3577410385719375</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0.9916299961644057</v>
+        <v>0.04884727659154819</v>
       </c>
       <c r="Q14">
-        <v>1.58665155884313</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.3391891976309864</v>
+      </c>
+      <c r="R14">
+        <v>1.086761598604951</v>
+      </c>
+      <c r="S14">
+        <v>1.262674237820107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.959262129641502</v>
+        <v>2.789936967959079</v>
       </c>
       <c r="C15">
-        <v>0.8542644684568188</v>
+        <v>0.8502144751501248</v>
       </c>
       <c r="D15">
-        <v>0.100413831859008</v>
+        <v>0.1143897941416299</v>
       </c>
       <c r="E15">
-        <v>0.1083588414601486</v>
+        <v>0.1067097250373727</v>
       </c>
       <c r="F15">
-        <v>0.5891099190014799</v>
+        <v>0.495301531566021</v>
       </c>
       <c r="G15">
-        <v>0.0007886855952260023</v>
+        <v>0.0364538897435196</v>
       </c>
       <c r="H15">
-        <v>0.1750026662531923</v>
+        <v>0.1750064842233883</v>
       </c>
       <c r="I15">
-        <v>0.003045929662322422</v>
+        <v>0.003427166861516007</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.2493088795414842</v>
+        <v>0.2058997852364826</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1072712344817592</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.05911095020656987</v>
       </c>
       <c r="N15">
-        <v>0.04336874828946513</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.345065878387004</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>1.00151205105081</v>
+        <v>0.04523431741535866</v>
       </c>
       <c r="Q15">
-        <v>1.549905739446757</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.3281538712542869</v>
+      </c>
+      <c r="R15">
+        <v>1.090234786366167</v>
+      </c>
+      <c r="S15">
+        <v>1.251794872547748</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.77534079351318</v>
+        <v>2.659469151400458</v>
       </c>
       <c r="C16">
-        <v>0.8075791048482301</v>
+        <v>0.8273026282412843</v>
       </c>
       <c r="D16">
-        <v>0.09490798093105468</v>
+        <v>0.1031480133178988</v>
       </c>
       <c r="E16">
-        <v>0.1038792828490926</v>
+        <v>0.1046537449090543</v>
       </c>
       <c r="F16">
-        <v>0.5657584022936248</v>
+        <v>0.5038839882159394</v>
       </c>
       <c r="G16">
-        <v>0.0007907212435373129</v>
+        <v>0.008208558444817271</v>
       </c>
       <c r="H16">
-        <v>0.1620739232483999</v>
+        <v>0.1620742855838699</v>
       </c>
       <c r="I16">
-        <v>0.002521746303717265</v>
+        <v>0.003063042040523989</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.2521304651379239</v>
+        <v>0.218058069713198</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1132799918989527</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.06099373612552483</v>
       </c>
       <c r="N16">
-        <v>0.0435363961153783</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.3252935272286095</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0.9951794908364064</v>
+        <v>0.0461131896721465</v>
       </c>
       <c r="Q16">
-        <v>1.507339958651443</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.3143901461968213</v>
+      </c>
+      <c r="R16">
+        <v>1.049798685036677</v>
+      </c>
+      <c r="S16">
+        <v>1.306625052770329</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.692442081914862</v>
+        <v>2.596482518542246</v>
       </c>
       <c r="C17">
-        <v>0.7630295583687143</v>
+        <v>0.793801999356134</v>
       </c>
       <c r="D17">
-        <v>0.08901764625828434</v>
+        <v>0.09484862063171562</v>
       </c>
       <c r="E17">
-        <v>0.09328505389236774</v>
+        <v>0.09497225926277864</v>
       </c>
       <c r="F17">
-        <v>0.5701088993150165</v>
+        <v>0.5199850947607061</v>
       </c>
       <c r="G17">
-        <v>0.0007918608903136323</v>
+        <v>0.002222438441906505</v>
       </c>
       <c r="H17">
-        <v>0.1242122032463584</v>
+        <v>0.124189873497258</v>
       </c>
       <c r="I17">
-        <v>0.002315106768039144</v>
+        <v>0.002912183447296712</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.2643854515805621</v>
+        <v>0.2323893853647654</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1196340720910456</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.06479945301846257</v>
       </c>
       <c r="N17">
-        <v>0.05247941728279315</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.3327588333362144</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0.9700742822905966</v>
+        <v>0.05594608081516839</v>
       </c>
       <c r="Q17">
-        <v>1.541256463787249</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.3239671304174792</v>
+      </c>
+      <c r="R17">
+        <v>1.009210422407094</v>
+      </c>
+      <c r="S17">
+        <v>1.375265324829854</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.689181409874834</v>
+        <v>2.595652918056714</v>
       </c>
       <c r="C18">
-        <v>0.7147946310084308</v>
+        <v>0.751744986858057</v>
       </c>
       <c r="D18">
-        <v>0.08218471404425287</v>
+        <v>0.08711956160424705</v>
       </c>
       <c r="E18">
-        <v>0.07970060409787827</v>
+        <v>0.08132584485719541</v>
       </c>
       <c r="F18">
-        <v>0.6000109383250134</v>
+        <v>0.5516055552544685</v>
       </c>
       <c r="G18">
-        <v>0.0007923057167191776</v>
+        <v>0.0008645290762507862</v>
       </c>
       <c r="H18">
-        <v>0.07137167727001525</v>
+        <v>0.07134365485358529</v>
       </c>
       <c r="I18">
-        <v>0.002028844053221235</v>
+        <v>0.002595631115014818</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.2878224649242043</v>
+        <v>0.2535851705172192</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1281888593903684</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.07192936518731585</v>
       </c>
       <c r="N18">
-        <v>0.07784653021838395</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.3658248928988428</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0.9279484684429349</v>
+        <v>0.08265745517600109</v>
       </c>
       <c r="Q18">
-        <v>1.649892916414501</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.3571714009665925</v>
+      </c>
+      <c r="R18">
+        <v>0.9598251066117029</v>
+      </c>
+      <c r="S18">
+        <v>1.486987163560798</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.743631389651284</v>
+        <v>2.642070306357368</v>
       </c>
       <c r="C19">
-        <v>0.6720355311921935</v>
+        <v>0.712902665251903</v>
       </c>
       <c r="D19">
-        <v>0.07570411512742226</v>
+        <v>0.08056526758765159</v>
       </c>
       <c r="E19">
-        <v>0.06995208278704546</v>
+        <v>0.07082450976658095</v>
       </c>
       <c r="F19">
-        <v>0.6463310075484046</v>
+        <v>0.5938277531919667</v>
       </c>
       <c r="G19">
-        <v>0.0007921384029522153</v>
+        <v>0.0006494468987967572</v>
       </c>
       <c r="H19">
-        <v>0.02616464996581414</v>
+        <v>0.02616044954191921</v>
       </c>
       <c r="I19">
-        <v>0.002209129443230928</v>
+        <v>0.002802945233373322</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3184568443219113</v>
+        <v>0.2792236496699338</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1379798396386391</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.08142761047520608</v>
       </c>
       <c r="N19">
-        <v>0.1267015654409249</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.4185273643712506</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0.882407130347886</v>
+        <v>0.1333155468930372</v>
       </c>
       <c r="Q19">
-        <v>1.805829855731787</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.4087738645238161</v>
+      </c>
+      <c r="R19">
+        <v>0.911335137437824</v>
+      </c>
+      <c r="S19">
+        <v>1.627489767974708</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.970681343335912</v>
+        <v>2.832897577065637</v>
       </c>
       <c r="C20">
-        <v>0.6387850559544006</v>
+        <v>0.6790789053005142</v>
       </c>
       <c r="D20">
-        <v>0.06964717117104868</v>
+        <v>0.07624209017267702</v>
       </c>
       <c r="E20">
-        <v>0.06980203941420404</v>
+        <v>0.06868099296509089</v>
       </c>
       <c r="F20">
-        <v>0.7420907586185308</v>
+        <v>0.6688459063112333</v>
       </c>
       <c r="G20">
-        <v>0.0007902440325039235</v>
+        <v>0.002840483053377696</v>
       </c>
       <c r="H20">
-        <v>0.0002846674866510135</v>
+        <v>0.0003356748387615127</v>
       </c>
       <c r="I20">
-        <v>0.002821449925290764</v>
+        <v>0.003372576200962207</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.3710418108638045</v>
+        <v>0.3177659000457425</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1504236861090611</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.09870510265400512</v>
       </c>
       <c r="N20">
-        <v>0.237770472704014</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.5259434212802319</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0.8209670301889886</v>
+        <v>0.2471988790710213</v>
       </c>
       <c r="Q20">
-        <v>2.104814110244234</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.5113186619042196</v>
+      </c>
+      <c r="R20">
+        <v>0.8547535106509656</v>
+      </c>
+      <c r="S20">
+        <v>1.856090378044996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.352576839099015</v>
+        <v>3.096511800169822</v>
       </c>
       <c r="C21">
-        <v>0.6997967883154388</v>
+        <v>0.7000629120009876</v>
       </c>
       <c r="D21">
-        <v>0.07588929840071046</v>
+        <v>0.09231941754611483</v>
       </c>
       <c r="E21">
-        <v>0.07312983958820762</v>
+        <v>0.07109397330521228</v>
       </c>
       <c r="F21">
-        <v>0.8152806955254306</v>
+        <v>0.6629996105675247</v>
       </c>
       <c r="G21">
-        <v>0.0007863563582831821</v>
+        <v>0.0646237034593895</v>
       </c>
       <c r="H21">
-        <v>0.0008285091536439637</v>
+        <v>0.0007310295032013636</v>
       </c>
       <c r="I21">
-        <v>0.004274876030750718</v>
+        <v>0.004420032210260771</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.3848676248878604</v>
+        <v>0.298580781982551</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1378222485023883</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.0991556545613399</v>
       </c>
       <c r="N21">
-        <v>0.2725564627859569</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.5983340217241206</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0.8014388520568829</v>
+        <v>0.2801611002176543</v>
       </c>
       <c r="Q21">
-        <v>2.28321459794185</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.5670690030397552</v>
+      </c>
+      <c r="R21">
+        <v>0.8830518319104783</v>
+      </c>
+      <c r="S21">
+        <v>1.777626805398768</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.600648411837085</v>
+        <v>3.26044037424839</v>
       </c>
       <c r="C22">
-        <v>0.7403986540836058</v>
+        <v>0.7118912066549115</v>
       </c>
       <c r="D22">
-        <v>0.08016656925089194</v>
+        <v>0.1040059671540234</v>
       </c>
       <c r="E22">
-        <v>0.07501649504970009</v>
+        <v>0.07270536769828073</v>
       </c>
       <c r="F22">
-        <v>0.8620743475713937</v>
+        <v>0.6542032553994801</v>
       </c>
       <c r="G22">
-        <v>0.0007838921327051701</v>
+        <v>0.1542865952131152</v>
       </c>
       <c r="H22">
-        <v>0.001475125644655573</v>
+        <v>0.001184500832732249</v>
       </c>
       <c r="I22">
-        <v>0.005191412661376127</v>
+        <v>0.004880162890255946</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.3931529340360456</v>
+        <v>0.2842316617234175</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1295543522838152</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.09855833715731777</v>
       </c>
       <c r="N22">
-        <v>0.289131750159271</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.641636819366326</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.7906303040872515</v>
+        <v>0.2952447727282532</v>
       </c>
       <c r="Q22">
-        <v>2.395952804268518</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.5984534229524385</v>
+      </c>
+      <c r="R22">
+        <v>0.9087029170709968</v>
+      </c>
+      <c r="S22">
+        <v>1.711517548119616</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.47232704924437</v>
+        <v>3.187323856575972</v>
       </c>
       <c r="C23">
-        <v>0.7168421304502317</v>
+        <v>0.7087026581538112</v>
       </c>
       <c r="D23">
-        <v>0.0777075885355103</v>
+        <v>0.096532727656502</v>
       </c>
       <c r="E23">
-        <v>0.07406160909828419</v>
+        <v>0.07179917371181643</v>
       </c>
       <c r="F23">
-        <v>0.8388248952841053</v>
+        <v>0.6680690634327107</v>
       </c>
       <c r="G23">
-        <v>0.0007851874630350723</v>
+        <v>0.08818499161652937</v>
       </c>
       <c r="H23">
-        <v>0.001112244736560353</v>
+        <v>0.0009416781231283977</v>
       </c>
       <c r="I23">
-        <v>0.004400493638644143</v>
+        <v>0.004299565242113168</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.3900658949098101</v>
+        <v>0.295937523904513</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1352526353317209</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1006130934380849</v>
       </c>
       <c r="N23">
-        <v>0.2800396433798795</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.6189194796307973</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.7951962182285399</v>
+        <v>0.2872166062021364</v>
       </c>
       <c r="Q23">
-        <v>2.341609490053912</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.5836797693554061</v>
+      </c>
+      <c r="R23">
+        <v>0.88880383756117</v>
+      </c>
+      <c r="S23">
+        <v>1.776413269192602</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.979534690093885</v>
+        <v>2.841436018747117</v>
       </c>
       <c r="C24">
-        <v>0.6311189542612397</v>
+        <v>0.6717587536674614</v>
       </c>
       <c r="D24">
-        <v>0.06869457467129791</v>
+        <v>0.0751858970714423</v>
       </c>
       <c r="E24">
-        <v>0.07036119327007473</v>
+        <v>0.0691144523978835</v>
       </c>
       <c r="F24">
-        <v>0.7495717028859303</v>
+        <v>0.6761680178254608</v>
       </c>
       <c r="G24">
-        <v>0.0007902241680224001</v>
+        <v>0.002673026827480385</v>
       </c>
       <c r="H24">
-        <v>0.0001876734533201585</v>
+        <v>0.0002416111541474475</v>
       </c>
       <c r="I24">
-        <v>0.002368411102845691</v>
+        <v>0.00282149437928858</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3769192495919391</v>
+        <v>0.3229617770410336</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1524155646236522</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1006178426212898</v>
       </c>
       <c r="N24">
-        <v>0.2461182670386535</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.5322961521206935</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0.8158145907470384</v>
+        <v>0.2557895082369441</v>
       </c>
       <c r="Q24">
-        <v>2.130971140503789</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.5176171356177477</v>
+      </c>
+      <c r="R24">
+        <v>0.8483737748167073</v>
+      </c>
+      <c r="S24">
+        <v>1.881289086560457</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.447457650041997</v>
+        <v>2.351043361225493</v>
       </c>
       <c r="C25">
-        <v>0.539299992879279</v>
+        <v>0.5743138930370151</v>
       </c>
       <c r="D25">
-        <v>0.05898063267772358</v>
+        <v>0.06263619093320472</v>
       </c>
       <c r="E25">
-        <v>0.06634496734303719</v>
+        <v>0.06666084878287615</v>
       </c>
       <c r="F25">
-        <v>0.656645357560123</v>
+        <v>0.5999707025581387</v>
       </c>
       <c r="G25">
-        <v>0.0007958948814512495</v>
+        <v>0.0006424496058934359</v>
       </c>
       <c r="H25">
-        <v>7.044124439770094E-05</v>
+        <v>1.230989539990901E-05</v>
       </c>
       <c r="I25">
-        <v>0.001214712918217842</v>
+        <v>0.0016699600126584</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3642925415864369</v>
+        <v>0.3182773119220776</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1597716106382165</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.08805809054509695</v>
       </c>
       <c r="N25">
-        <v>0.2097188190090833</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.4389304756251562</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0.8409113490203808</v>
+        <v>0.2190015296718499</v>
       </c>
       <c r="Q25">
-        <v>1.913546212671037</v>
+        <v>0.4287679336841776</v>
+      </c>
+      <c r="R25">
+        <v>0.8526759411428415</v>
+      </c>
+      <c r="S25">
+        <v>1.715064995322962</v>
       </c>
     </row>
   </sheetData>
